--- a/runs.xlsx
+++ b/runs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adashaw/Documents/2018spring/cs205_lec/ps2/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923515C6-D6ED-774A-8228-24B1CECB5B79}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9217AF3-0D1B-F242-A8E4-9EA2E176224E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16300" activeTab="6" xr2:uid="{CED36630-B4AB-0F4F-BE03-3186FA535C13}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16300" activeTab="4" xr2:uid="{CED36630-B4AB-0F4F-BE03-3186FA535C13}"/>
   </bookViews>
   <sheets>
     <sheet name="5.1" sheetId="1" r:id="rId1"/>
@@ -4032,7 +4032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020CC4A2-6217-A745-9DD6-91CAC2895363}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -4062,7 +4062,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>3.4910000000000001</v>
+        <v>2.3149999999999999</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>102</v>
@@ -4076,7 +4076,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>10.961</v>
+        <v>2.5760000000000001</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>102</v>
@@ -4087,7 +4087,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>90.102999999999994</v>
+        <v>5.1230000000000002</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>102</v>
@@ -4148,7 +4148,7 @@
         <v>32</v>
       </c>
       <c r="C13">
-        <v>89.471999999999994</v>
+        <v>2.0840000000000001</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>102</v>
@@ -4159,7 +4159,7 @@
         <v>64</v>
       </c>
       <c r="C14">
-        <v>90.349000000000004</v>
+        <v>2.2330000000000001</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>102</v>
@@ -4170,7 +4170,7 @@
         <v>128</v>
       </c>
       <c r="C15">
-        <v>90.001999999999995</v>
+        <v>2.266</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>102</v>
@@ -4181,7 +4181,7 @@
         <v>512</v>
       </c>
       <c r="C16">
-        <v>90.373999999999995</v>
+        <v>2.2650000000000001</v>
       </c>
       <c r="D16" t="s">
         <v>102</v>
@@ -4192,7 +4192,7 @@
         <v>1024</v>
       </c>
       <c r="C17">
-        <v>90.102999999999994</v>
+        <v>5.1230000000000002</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>102</v>
@@ -4208,7 +4208,7 @@
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4335,7 +4335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F1C713-22F4-DF4B-B179-4171080529BB}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>

--- a/runs.xlsx
+++ b/runs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adashaw/Documents/2018spring/cs205_lec/ps2/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9217AF3-0D1B-F242-A8E4-9EA2E176224E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159E468A-2525-2344-8A55-D01FDFC934AF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16300" activeTab="4" xr2:uid="{CED36630-B4AB-0F4F-BE03-3186FA535C13}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16300" xr2:uid="{CED36630-B4AB-0F4F-BE03-3186FA535C13}"/>
   </bookViews>
   <sheets>
     <sheet name="5.1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="4.1" sheetId="4" r:id="rId4"/>
     <sheet name="3.1" sheetId="5" r:id="rId5"/>
     <sheet name="g3x.4xlarge" sheetId="6" r:id="rId6"/>
-    <sheet name="g2.2xlarge" sheetId="7" r:id="rId7"/>
+    <sheet name="t2.2xlarge" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="152">
   <si>
     <t>mpirun -np 1 ./P51</t>
   </si>
@@ -318,9 +318,6 @@
     <t>gcc -DUSE_CLOCK -O3 -ftree-parallelize-loops=2 -Ofast seq_mm_lu.c timing.c -o lu</t>
   </si>
   <si>
-    <t>gcc -DUSE_CLOCK -O3 -ftree-parallelize-loops=2 seq_mm_lugcc -DUSE_CLOCK -O3 -ftree-parallelize-loops=2 seq_mm.c timing.c -o seq_mm_aq.c timing.c -o lu</t>
-  </si>
-  <si>
     <t>gcc -DUSE_CLOCK -O3 -ftree-parallelize-loops=2 -Ofast seq_mm.c timing.c -o seq_mm_aq</t>
   </si>
   <si>
@@ -421,6 +418,88 @@
   </si>
   <si>
     <t>ncells=10^8,vl=</t>
+  </si>
+  <si>
+    <t>elapsed time [s]</t>
+  </si>
+  <si>
+    <t>CPU(s):                8</t>
+  </si>
+  <si>
+    <t>On-line CPU(s) list:   0-7</t>
+  </si>
+  <si>
+    <t>Thread(s) per core:    1</t>
+  </si>
+  <si>
+    <t>CPU MHz:               2300.092</t>
+  </si>
+  <si>
+    <t>BogoMIPS:              4600.18</t>
+  </si>
+  <si>
+    <t>L1i cache:             32K</t>
+  </si>
+  <si>
+    <t>L2 cache:              256K</t>
+  </si>
+  <si>
+    <t>L3 cache:              46080K</t>
+  </si>
+  <si>
+    <t>NUMA node0 CPU(s):     0-7</t>
+  </si>
+  <si>
+    <t>compiler version:  gcc (Ubuntu 5.4.0-6ubuntu1~16.04.9) 5.4.0 20160609</t>
+  </si>
+  <si>
+    <t>problem 4</t>
+  </si>
+  <si>
+    <t>problem 5</t>
+  </si>
+  <si>
+    <t>compiler: mpiexec --version                                                                                                                                                                                                                         HYDRA build details:
+    Version:                                 3.2
+    Release Date:                            Wed Nov 11 22:06:48 CST 2015
+    CC:                              gcc   -Wl,-Bsymbolic-functions -Wl,-z,relro 
+    CXX:                             g++   -Wl,-Bsymbolic-functions -Wl,-z,relro 
+    F77:                             gfortran  -Wl,-Bsymbolic-functions -Wl,-z,relro 
+    F90:                             gfortran  -Wl,-Bsymbolic-functions -Wl,-z,relro 
+    Configure options:                       '--disable-option-checking' '--prefix=/usr' '--build=x86_64-linux-gnu' '--includedir=${prefix}/include' '--mandir=${prefix}/share/man' '--infodir=${prefix}/share/info' '--sysconfdir=/etc' '--localstatedir=/var' '--disable-silent-rules' '--libdir=${prefix}/lib/x86_64-linux-gnu' '--libexecdir=${prefix}/lib/x86_64-linux-gnu' '--disable-maintainer-mode' '--disable-dependency-tracking' '--enable-shared' '--enable-fortran=all' '--disable-rpath' '--disable-wrapper-rpath' '--sysconfdir=/etc/mpich' '--libdir=/usr/lib/x86_64-linux-gnu' '--includedir=/usr/include/mpich' '--docdir=/usr/share/doc/mpich' '--with-hwloc-prefix=system' '--enable-checkpointing' '--with-hydra-ckpointlib=blcr' 'CPPFLAGS= -Wdate-time -D_FORTIFY_SOURCE=2 -I/build/mpich-jQtQ8p/mpich-3.2/src/mpl/include -I/build/mpich-jQtQ8p/mpich-3.2/src/mpl/include -I/build/mpich-jQtQ8p/mpich-3.2/src/openpa/src -I/build/mpich-jQtQ8p/mpich-3.2/src/openpa/src -D_REENTRANT -I/build/mpich-jQtQ8p/mpich-3.2/src/mpi/romio/include' 'CFLAGS= -g -O2 -fstack-protector-strong -Wformat -Werror=format-security -O2' 'CXXFLAGS= -g -O2 -fstack-protector-strong -Wformat -Werror=format-security -O2' 'FFLAGS= -g -O2 -fstack-protector-strong -O2' 'FCFLAGS= -g -O2 -fstack-protector-strong -O2' 'build_alias=x86_64-linux-gnu' 'MPICHLIB_CFLAGS=-g -O2 -fstack-protector-strong -Wformat -Werror=format-security' 'MPICHLIB_CPPFLAGS=-Wdate-time -D_FORTIFY_SOURCE=2' 'MPICHLIB_CXXFLAGS=-g -O2 -fstack-protector-strong -Wformat -Werror=format-security' 'MPICHLIB_FFLAGS=-g -O2 -fstack-protector-strong' 'MPICHLIB_FCFLAGS=-g -O2 -fstack-protector-strong' 'LDFLAGS=-Wl,-Bsymbolic-functions -Wl,-z,relro' 'FC=gfortran' 'F77=gfortran' 'MPILIBNAME=mpich' '--cache-file=/dev/null' '--srcdir=.' 'CC=gcc' 'LIBS=-lpthread '
+    Process Manager:                         pmi
+    Launchers available:                     ssh rsh fork slurm ll lsf sge manual persist
+    Topology libraries available:            hwloc
+    Resource management kernels available:   user slurm ll lsf sge pbs cobalt
+    Checkpointing libraries available:       blcr
+    Demux engines available:                 poll select</t>
+  </si>
+  <si>
+    <t>operating system:  Linux localhost 4.4.0-1052-aws #61-Ubuntu SMP Mon Feb 12 23:05:58 UTC 2018 x86_64 x86_64 x86_64 GNU/Linux</t>
+  </si>
+  <si>
+    <t>master operating system:  Linux ip-172-30-8-9 4.4.0-1052-aws #61-Ubuntu SMP Mon Feb 12 23:05:58 UTC 2018 x86_64 x86_64 x86_64 GNU/Linux</t>
+  </si>
+  <si>
+    <t>node1 operating system:  Linux ip-172-30-8-10 4.4.0-1052-aws #61-Ubuntu SMP Mon Feb 12 23:05:58 UTC 2018 x86_64 x86_64 x86_64 GNU/Linux</t>
+  </si>
+  <si>
+    <t>gcc -DUSE_CLOCK -O3 -ftree-parallelize-loops=2 seq_mm.c timing.c -o seq_mm</t>
+  </si>
+  <si>
+    <t>mpicc P51.c -o P51</t>
+  </si>
+  <si>
+    <t>compilation</t>
+  </si>
+  <si>
+    <t>mpicc P52.c -o P52</t>
+  </si>
+  <si>
+    <t>export MPICH_PORT_RANGE=10000:10100</t>
+  </si>
+  <si>
+    <t>export MPIR_CVAR_CH3_PORT_RANGE=10000:10100</t>
   </si>
 </sst>
 </file>
@@ -450,12 +529,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color rgb="FF333333"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <u/>
       <sz val="12"/>
@@ -465,9 +538,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF454845"/>
       <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -575,11 +655,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -589,6 +668,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -608,6 +688,1502 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>tasks versus speedup</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1" baseline="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13178937007874017"/>
+          <c:y val="0.16708333333333336"/>
+          <c:w val="0.82183573928258968"/>
+          <c:h val="0.62271617089530473"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>changing tasks</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'5.1'!$G$2:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'5.1'!$F$2:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0295242996509442</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0293162913369849</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9765108486110932</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9566170779946686</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-785B-8A4D-A8D9-342B082A3D72}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1999140848"/>
+        <c:axId val="1544049216"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1999140848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Number of tasks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1544049216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1544049216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t> T_s/T_p</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1999140848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>problem</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> size </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>versus speedup</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1" baseline="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13178937007874017"/>
+          <c:y val="0.16708333333333336"/>
+          <c:w val="0.82183573928258968"/>
+          <c:h val="0.62271617089530473"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>increasing problem size</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'5.1'!$G$9:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'5.1'!$F$9:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.856687570679552</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1798643229469112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5486519384390967</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8646624766469353</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9696-C443-9675-15E87008C134}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1999140848"/>
+        <c:axId val="1544049216"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1999140848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="8"/>
+          <c:min val="5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>k</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1544049216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1544049216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t> T_s/T_p</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1999140848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>problem</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> size </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>versus speedup</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1" baseline="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13734492563429571"/>
+          <c:y val="0.19949074074074077"/>
+          <c:w val="0.71350240594925629"/>
+          <c:h val="0.53938283756197136"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>omp</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'5.1'!$G$9:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'4.1'!$G$4:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.4736842105263159</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1360544217687081</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.721865889212828</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7108622490425902</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-43F5-D64B-A613-A88DC1B87368}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>mpi</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'5.1'!$G$9:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'5.1'!$F$9:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.856687570679552</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1798643229469112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5486519384390967</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8646624766469353</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-43F5-D64B-A613-A88DC1B87368}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1999140848"/>
+        <c:axId val="1544049216"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1999140848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="8"/>
+          <c:min val="5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>k</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1544049216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1544049216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t> T_s/T_p</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.4527777777777773E-2"/>
+              <c:y val="0.36323308544765232"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1999140848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1054,7 +2630,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1485,6 +3061,1009 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Problem Size versus Speedup</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>problem size</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'4.1'!$H$4:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'4.1'!$G$4:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.4736842105263159</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1360544217687081</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.721865889212828</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7108622490425902</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FD8E-5D4D-9870-BDF39E62624A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2042452048"/>
+        <c:axId val="1524709440"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2042452048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="8"/>
+          <c:min val="4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>k</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1524709440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1524709440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>T_p/T_s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2042452048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>P31a</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'3.1'!$B$3:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'3.1'!$F$3:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.67093800000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87761500000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.95268</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3EFB-764B-963B-FF792D27A29C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>P31b</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'3.1'!$B$8:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'3.1'!$F$8:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0969500000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0875000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.060499999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3EFB-764B-963B-FF792D27A29C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>serial</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'3.1'!$B$8:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'3.1'!$F$24:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.452295</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5953400000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46.011499999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3EFB-764B-963B-FF792D27A29C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1999037200"/>
+        <c:axId val="1543545792"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1999037200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="8"/>
+          <c:min val="6"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>k</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1543545792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1543545792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>elapsed time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1999037200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1565,6 +4144,206 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2597,18 +5376,2717 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A927ED39-CB33-DB46-8E2E-89E740E63803}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FB46C77-7C41-F34D-858D-FD640B2E4EEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E807C7EE-CF21-7341-8431-58ACCCF265E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:colOff>317500</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>50800</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
@@ -2666,6 +8144,85 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2338C5CB-5856-9241-BC2F-747BE3C5FB1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4695D513-3496-C944-ADD3-553637E08BE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2971,29 +8528,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{897F7AC2-EF1E-8142-A04C-FC533782A591}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3"/>
+      <c r="D1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>72</v>
+      </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -3006,7 +8569,16 @@
       <c r="C2">
         <v>44.692</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="D2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2">
+        <f>$E$27/C2</f>
+        <v>1.0295242996509442</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -3018,7 +8590,16 @@
       <c r="C3">
         <v>22.673400000000001</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="D3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F5" si="0">$E$27/C3</f>
+        <v>2.0293162913369849</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -3030,6 +8611,16 @@
       <c r="C4">
         <v>15.4582</v>
       </c>
+      <c r="D4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>2.9765108486110932</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -3041,6 +8632,16 @@
       <c r="C5">
         <v>11.629</v>
       </c>
+      <c r="D5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>3.9566170779946686</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -3057,6 +8658,16 @@
       <c r="C9">
         <v>2.4317499999999999E-2</v>
       </c>
+      <c r="D9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F9">
+        <f>E24/C9</f>
+        <v>1.856687570679552</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -3068,6 +8679,16 @@
       <c r="C10">
         <v>7.3188500000000004E-2</v>
       </c>
+      <c r="D10" t="s">
+        <v>147</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ref="F10:F12" si="1">E25/C10</f>
+        <v>6.1798643229469112</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -3079,6 +8700,16 @@
       <c r="C11">
         <v>0.60876300000000005</v>
       </c>
+      <c r="D11" t="s">
+        <v>147</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>7.5486519384390967</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -3090,6 +8721,16 @@
       <c r="C12">
         <v>5.8504100000000001</v>
       </c>
+      <c r="D12" t="s">
+        <v>147</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>7.8646624766469353</v>
+      </c>
+      <c r="G12">
+        <v>8</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -3101,6 +8742,13 @@
       <c r="C14">
         <v>22.3721</v>
       </c>
+      <c r="D14" t="s">
+        <v>147</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ref="F10:F20" si="2">$E$27/C14</f>
+        <v>2.0566464480312532</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
@@ -3109,6 +8757,13 @@
       <c r="C15">
         <v>15.2249</v>
       </c>
+      <c r="D15" t="s">
+        <v>147</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>3.0221216559714676</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -3117,63 +8772,175 @@
       <c r="C16">
         <v>11.458500000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>147</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>4.0154906837718718</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C17">
         <v>9.2466600000000003</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>147</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>4.9760129603554146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C18">
         <v>7.7000200000000003</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>147</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>5.9755039597299744</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C19">
         <v>6.6597900000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>147</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>6.908851480301931</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C20">
         <v>5.8573899999999997</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
+      <c r="D20" t="s">
+        <v>147</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>7.8552904962790597</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24">
+        <v>4.7E-2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24">
+        <v>4.5150000000000003E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="C25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25">
+        <v>0.452295</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26">
+        <v>4.6680000000000001</v>
+      </c>
+      <c r="C26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26">
+        <v>4.5953400000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27">
+        <v>46.719000000000001</v>
+      </c>
+      <c r="C27" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27">
+        <v>46.011499999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G30" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G31" s="14" t="s">
+        <v>151</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57692D6-A95E-4148-8E39-0809A937E166}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3181,25 +8948,29 @@
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -3209,8 +8980,11 @@
       <c r="C3">
         <v>22.2896</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -3220,8 +8994,11 @@
       <c r="C4">
         <v>11.3354</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -3230,6 +9007,9 @@
       </c>
       <c r="C5">
         <v>5.8448500000000001</v>
+      </c>
+      <c r="D5" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -3242,14 +9022,14 @@
   <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="A25" sqref="A25:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.33203125" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="71.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="135.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -3267,7 +9047,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B2">
@@ -3439,7 +9219,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>2.2000000000000002</v>
       </c>
     </row>
@@ -3542,95 +9322,95 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+      <c r="A27" s="4">
         <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="8"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="7"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="9">
         <v>4.2089999999999996</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10" t="s">
+      <c r="C29" s="9"/>
+      <c r="D29" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="11"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="10"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="9">
         <v>3.581</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10" t="s">
+      <c r="C30" s="9"/>
+      <c r="D30" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="11"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="10"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="9">
         <v>2.8260000000000001</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10" t="s">
+      <c r="C31" s="9"/>
+      <c r="D31" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="11"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="10"/>
     </row>
     <row r="32" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B32" s="13">
+      <c r="B32" s="12">
         <v>3.91</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="14"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="13"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
@@ -3655,7 +9435,7 @@
       <c r="B36">
         <v>3.5819999999999999</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3677,13 +9457,13 @@
       <c r="B38">
         <v>3.8780000000000001</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>96</v>
+      <c r="D38" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -3694,7 +9474,7 @@
         <v>6.7960000000000003</v>
       </c>
       <c r="D41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -3721,8 +9501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9F42622-8E16-8D46-8CD9-1D57A2E7F6B6}">
   <dimension ref="A2:H19"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3958,7 +9738,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -3974,7 +9754,7 @@
         <v>4.7E-2</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D16" t="s">
         <v>62</v>
@@ -4016,7 +9796,7 @@
         <v>46.719000000000001</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D19" t="s">
         <v>62</v>
@@ -4030,17 +9810,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020CC4A2-6217-A745-9DD6-91CAC2895363}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="57.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>60</v>
@@ -4048,101 +9832,121 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>6</v>
       </c>
       <c r="C3">
         <v>2.3149999999999999</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="I3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3">
+        <v>0.67093800000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>7</v>
       </c>
       <c r="C4">
         <v>2.5760000000000001</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4">
+        <v>0.87761500000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>8</v>
       </c>
       <c r="C5">
         <v>5.1230000000000002</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5">
+        <v>2.95268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D7" s="15"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>6</v>
       </c>
       <c r="C8">
         <v>2.7410000000000001</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="I8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8">
+        <v>1.0969500000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>7</v>
       </c>
       <c r="C9">
         <v>5.7640000000000002</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9">
+        <v>4.0875000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>8</v>
       </c>
       <c r="C10">
         <v>36.090000000000003</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10">
+        <v>34.060499999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>104</v>
       </c>
       <c r="B13">
         <v>32</v>
@@ -4150,56 +9954,146 @@
       <c r="C13">
         <v>2.0840000000000001</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>64</v>
       </c>
       <c r="C14">
         <v>2.2330000000000001</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>128</v>
       </c>
       <c r="C15">
         <v>2.266</v>
       </c>
-      <c r="D15" s="15" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16">
+        <v>256</v>
+      </c>
+      <c r="C16">
+        <v>2.2679999999999998</v>
+      </c>
+      <c r="D16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17">
         <v>512</v>
       </c>
-      <c r="C16">
-        <v>2.2650000000000001</v>
-      </c>
-      <c r="D16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17">
+      <c r="C17">
+        <v>2.3069999999999999</v>
+      </c>
+      <c r="D17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18">
         <v>1024</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>5.1230000000000002</v>
       </c>
-      <c r="D17" s="15" t="s">
-        <v>102</v>
+      <c r="D18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>4.7E-2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23">
+        <v>4.5150000000000003E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="D24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24">
+        <v>0.452295</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25">
+        <v>4.6680000000000001</v>
+      </c>
+      <c r="D25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25">
+        <v>4.5953400000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26">
+        <v>46.719000000000001</v>
+      </c>
+      <c r="D26" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26">
+        <v>46.011499999999998</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4218,112 +10112,112 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -4333,12 +10227,168 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F1C713-22F4-DF4B-B179-4171080529BB}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="136" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/runs.xlsx
+++ b/runs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adashaw/Documents/2018spring/cs205_lec/ps2/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159E468A-2525-2344-8A55-D01FDFC934AF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8D6924-F151-414A-BEB9-66E75B483752}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16300" xr2:uid="{CED36630-B4AB-0F4F-BE03-3186FA535C13}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16300" activeTab="1" xr2:uid="{CED36630-B4AB-0F4F-BE03-3186FA535C13}"/>
   </bookViews>
   <sheets>
     <sheet name="5.1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="159">
   <si>
     <t>mpirun -np 1 ./P51</t>
   </si>
@@ -417,7 +417,7 @@
     <t>compiler version and operating system:         pgcc 17.10-0 64-bit target on x86-64 Linux -tp haswell </t>
   </si>
   <si>
-    <t>ncells=10^8,vl=</t>
+    <t>vl</t>
   </si>
   <si>
     <t>elapsed time [s]</t>
@@ -435,9 +435,6 @@
     <t>CPU MHz:               2300.092</t>
   </si>
   <si>
-    <t>BogoMIPS:              4600.18</t>
-  </si>
-  <si>
     <t>L1i cache:             32K</t>
   </si>
   <si>
@@ -459,7 +456,58 @@
     <t>problem 5</t>
   </si>
   <si>
-    <t>compiler: mpiexec --version                                                                                                                                                                                                                         HYDRA build details:
+    <t>operating system:  Linux localhost 4.4.0-1052-aws #61-Ubuntu SMP Mon Feb 12 23:05:58 UTC 2018 x86_64 x86_64 x86_64 GNU/Linux</t>
+  </si>
+  <si>
+    <t>master operating system:  Linux ip-172-30-8-9 4.4.0-1052-aws #61-Ubuntu SMP Mon Feb 12 23:05:58 UTC 2018 x86_64 x86_64 x86_64 GNU/Linux</t>
+  </si>
+  <si>
+    <t>node1 operating system:  Linux ip-172-30-8-10 4.4.0-1052-aws #61-Ubuntu SMP Mon Feb 12 23:05:58 UTC 2018 x86_64 x86_64 x86_64 GNU/Linux</t>
+  </si>
+  <si>
+    <t>gcc -DUSE_CLOCK -O3 -ftree-parallelize-loops=2 seq_mm.c timing.c -o seq_mm</t>
+  </si>
+  <si>
+    <t>mpicc P51.c -o P51</t>
+  </si>
+  <si>
+    <t>compilation</t>
+  </si>
+  <si>
+    <t>mpicc P52.c -o P52</t>
+  </si>
+  <si>
+    <t>export MPICH_PORT_RANGE=10000:10100</t>
+  </si>
+  <si>
+    <t>export MPIR_CVAR_CH3_PORT_RANGE=10000:10100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">problem 2: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">compilation </t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>mpirun -np 3 -hosts master,node1 ./P51</t>
+  </si>
+  <si>
+    <t>mpirun -np 4 -hosts master,node1 ./P51</t>
+  </si>
+  <si>
+    <t>mpirun -np 5 -hosts master,node1 ./P51</t>
+  </si>
+  <si>
+    <t>mpirun -np 6 -hosts master,node1 ./P51</t>
+  </si>
+  <si>
+    <t>mpirun -np 7 -hosts master,node1 ./P51</t>
+  </si>
+  <si>
+    <t>MPI compiler: MPICH                                                                                                                                                                                                                                   HYDRA build details:
     Version:                                 3.2
     Release Date:                            Wed Nov 11 22:06:48 CST 2015
     CC:                              gcc   -Wl,-Bsymbolic-functions -Wl,-z,relro 
@@ -473,33 +521,6 @@
     Resource management kernels available:   user slurm ll lsf sge pbs cobalt
     Checkpointing libraries available:       blcr
     Demux engines available:                 poll select</t>
-  </si>
-  <si>
-    <t>operating system:  Linux localhost 4.4.0-1052-aws #61-Ubuntu SMP Mon Feb 12 23:05:58 UTC 2018 x86_64 x86_64 x86_64 GNU/Linux</t>
-  </si>
-  <si>
-    <t>master operating system:  Linux ip-172-30-8-9 4.4.0-1052-aws #61-Ubuntu SMP Mon Feb 12 23:05:58 UTC 2018 x86_64 x86_64 x86_64 GNU/Linux</t>
-  </si>
-  <si>
-    <t>node1 operating system:  Linux ip-172-30-8-10 4.4.0-1052-aws #61-Ubuntu SMP Mon Feb 12 23:05:58 UTC 2018 x86_64 x86_64 x86_64 GNU/Linux</t>
-  </si>
-  <si>
-    <t>gcc -DUSE_CLOCK -O3 -ftree-parallelize-loops=2 seq_mm.c timing.c -o seq_mm</t>
-  </si>
-  <si>
-    <t>mpicc P51.c -o P51</t>
-  </si>
-  <si>
-    <t>compilation</t>
-  </si>
-  <si>
-    <t>mpicc P52.c -o P52</t>
-  </si>
-  <si>
-    <t>export MPICH_PORT_RANGE=10000:10100</t>
-  </si>
-  <si>
-    <t>export MPIR_CVAR_CH3_PORT_RANGE=10000:10100</t>
   </si>
 </sst>
 </file>
@@ -545,9 +566,9 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="12"/>
       <color rgb="FF333333"/>
-      <name val="Helvetica Neue"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -651,7 +672,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -669,6 +690,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2017,7 +2039,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" b="1"/>
-                  <a:t> T_s/T_p</a:t>
+                  <a:t>speedup</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2218,6 +2240,551 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
+              <a:t>cores/tasks versus speedup</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>mpi</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'5.1'!$F$14:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.0566464480312532</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0221216559714676</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0154906837718718</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9760129603554146</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.9755039597299744</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.908851480301931</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8552904962790597</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'5.1'!$G$14:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0468-B543-B433-9BFD54F12BEA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>omp</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'4.1'!$H$10:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'4.1'!$G$10:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.6754769760436092</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7108622490425902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1665311102074019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0468-B543-B433-9BFD54F12BEA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1543729600"/>
+        <c:axId val="1546998912"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1543729600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>cores/tasks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1546998912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1546998912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1543729600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
               <a:t>Problem Size versus Parallel</a:t>
             </a:r>
             <a:r>
@@ -2271,7 +2838,9 @@
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2630,7 +3199,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2711,7 +3280,9 @@
           <c:order val="0"/>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3061,7 +3632,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3144,7 +3715,9 @@
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3504,7 +4077,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3906,7 +4479,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>elapsed time</a:t>
+                  <a:t>elapsed time [s]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4344,6 +4917,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -7441,6 +8054,522 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8067,6 +9196,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1092200</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B34B45AA-D97B-3445-A66B-0DF0CA536FE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8530,8 +9695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{897F7AC2-EF1E-8142-A04C-FC533782A591}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8541,7 +9706,7 @@
     <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -8552,9 +9717,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F1" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16" t="s">
         <v>72</v>
       </c>
       <c r="G1" s="2"/>
@@ -8570,7 +9736,7 @@
         <v>44.692</v>
       </c>
       <c r="D2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F2">
         <f>$E$27/C2</f>
@@ -8591,7 +9757,7 @@
         <v>22.673400000000001</v>
       </c>
       <c r="D3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F5" si="0">$E$27/C3</f>
@@ -8612,7 +9778,7 @@
         <v>15.4582</v>
       </c>
       <c r="D4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
@@ -8633,7 +9799,7 @@
         <v>11.629</v>
       </c>
       <c r="D5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
@@ -8659,7 +9825,7 @@
         <v>2.4317499999999999E-2</v>
       </c>
       <c r="D9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F9">
         <f>E24/C9</f>
@@ -8680,7 +9846,7 @@
         <v>7.3188500000000004E-2</v>
       </c>
       <c r="D10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F10">
         <f t="shared" ref="F10:F12" si="1">E25/C10</f>
@@ -8701,7 +9867,7 @@
         <v>0.60876300000000005</v>
       </c>
       <c r="D11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
@@ -8722,7 +9888,7 @@
         <v>5.8504100000000001</v>
       </c>
       <c r="D12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
@@ -8743,102 +9909,141 @@
         <v>22.3721</v>
       </c>
       <c r="D14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F14">
         <f t="shared" ref="F10:F20" si="2">$E$27/C14</f>
         <v>2.0566464480312532</v>
       </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B15" t="s">
+        <v>153</v>
+      </c>
       <c r="C15">
         <v>15.2249</v>
       </c>
       <c r="D15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F15">
         <f t="shared" si="2"/>
         <v>3.0221216559714676</v>
       </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B16" t="s">
+        <v>154</v>
+      </c>
       <c r="C16">
         <v>11.458500000000001</v>
       </c>
       <c r="D16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F16">
         <f t="shared" si="2"/>
         <v>4.0154906837718718</v>
       </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="B17" t="s">
+        <v>155</v>
+      </c>
       <c r="C17">
         <v>9.2466600000000003</v>
       </c>
       <c r="D17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F17">
         <f t="shared" si="2"/>
         <v>4.9760129603554146</v>
       </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="B18" t="s">
+        <v>156</v>
+      </c>
       <c r="C18">
         <v>7.7000200000000003</v>
       </c>
       <c r="D18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F18">
         <f t="shared" si="2"/>
         <v>5.9755039597299744</v>
       </c>
+      <c r="G18">
+        <v>6</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="B19" t="s">
+        <v>157</v>
+      </c>
       <c r="C19">
         <v>6.6597900000000001</v>
       </c>
       <c r="D19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F19">
         <f t="shared" si="2"/>
         <v>6.908851480301931</v>
       </c>
+      <c r="G19">
+        <v>7</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
       <c r="C20">
         <v>5.8573899999999997</v>
       </c>
       <c r="D20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F20">
         <f t="shared" si="2"/>
         <v>7.8552904962790597</v>
       </c>
+      <c r="G20">
+        <v>8</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -8920,12 +10125,12 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G30" s="14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G31" s="14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -8939,8 +10144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57692D6-A95E-4148-8E39-0809A937E166}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8962,7 +10167,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -8981,7 +10186,7 @@
         <v>22.2896</v>
       </c>
       <c r="D3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -8995,7 +10200,7 @@
         <v>11.3354</v>
       </c>
       <c r="D4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -9009,7 +10214,7 @@
         <v>5.8448500000000001</v>
       </c>
       <c r="D5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -9021,8 +10226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3E7BE9-4BBC-B240-84CA-27C8C7A17E7A}">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:D25"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9403,7 +10608,7 @@
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
@@ -9494,6 +10699,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -9501,8 +10707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9F42622-8E16-8D46-8CD9-1D57A2E7F6B6}">
   <dimension ref="A2:H19"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9813,7 +11019,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:F26"/>
+      <selection activeCell="B13" sqref="B13:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9830,7 +11036,7 @@
         <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>151</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>129</v>
@@ -9841,7 +11047,7 @@
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -9892,6 +11098,9 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>104</v>
+      </c>
+      <c r="B7" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -10102,7 +11311,7 @@
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10227,10 +11436,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F1C713-22F4-DF4B-B179-4171080529BB}">
-  <dimension ref="A1:A31"/>
+  <dimension ref="A1:A35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10315,7 +11524,7 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
@@ -10335,57 +11544,72 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/runs.xlsx
+++ b/runs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adashaw/Documents/2018spring/cs205_lec/ps2/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8D6924-F151-414A-BEB9-66E75B483752}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B28DB0-E41B-0B4E-9104-60FDC212F12B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16300" activeTab="1" xr2:uid="{CED36630-B4AB-0F4F-BE03-3186FA535C13}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16300" activeTab="3" xr2:uid="{CED36630-B4AB-0F4F-BE03-3186FA535C13}"/>
   </bookViews>
   <sheets>
     <sheet name="5.1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,11 @@
     <sheet name="g3x.4xlarge" sheetId="6" r:id="rId6"/>
     <sheet name="t2.2xlarge" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'4.1'!$G$10:$G$12</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'4.1'!$H$10:$H$12</definedName>
+  </definedNames>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3505,7 +3509,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" b="1"/>
-                  <a:t> T_s/T_p</a:t>
+                  <a:t>speedup</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3950,7 +3954,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" b="1"/>
-                  <a:t>T_p/T_s</a:t>
+                  <a:t>speedup</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -9912,7 +9916,7 @@
         <v>145</v>
       </c>
       <c r="F14">
-        <f t="shared" ref="F10:F20" si="2">$E$27/C14</f>
+        <f t="shared" ref="F14:F20" si="2">$E$27/C14</f>
         <v>2.0566464480312532</v>
       </c>
       <c r="G14">
@@ -10144,7 +10148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57692D6-A95E-4148-8E39-0809A937E166}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:D5"/>
     </sheetView>
   </sheetViews>
@@ -10707,8 +10711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9F42622-8E16-8D46-8CD9-1D57A2E7F6B6}">
   <dimension ref="A2:H19"/>
   <sheetViews>
-    <sheetView topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11019,7 +11023,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:D18"/>
+      <selection activeCell="C23" sqref="C23:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11582,7 +11586,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>158</v>
       </c>
